--- a/资产/油罐车资产管理表.xlsx
+++ b/资产/油罐车资产管理表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,66 @@
   </si>
   <si>
     <t>✔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渝AH9081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2028.3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨玉杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆顺宇物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3505kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫QE5578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.7.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6150kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2027.7.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻马店市安顺物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马久红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,19 +181,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,73 +540,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="10" max="12" width="13.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="J2" s="1" t="s">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17057039</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2019.3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>17038003</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2018.7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/资产/油罐车资产管理表.xlsx
+++ b/资产/油罐车资产管理表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,34 @@
   </si>
   <si>
     <t>淄博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京AEZ911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2027.12.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京宏茂顺通运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐延明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -682,6 +710,60 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>89973675</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2018.12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/资产/油罐车资产管理表.xlsx
+++ b/资产/油罐车资产管理表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,34 @@
   </si>
   <si>
     <t>徐延明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睆NA6435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.9.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六安俊雄汽车运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马久红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南焦作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +599,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -750,19 +778,45 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14037650</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2018.9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/资产/油罐车资产管理表.xlsx
+++ b/资产/油罐车资产管理表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,18 +185,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马久红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>河南焦作</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睆AA8590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.10.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥新海运输有限公司</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -256,10 +278,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -596,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -610,7 +633,7 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="10" max="12" width="13.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -800,23 +823,167 @@
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15034896</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2018.1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/资产/油罐车资产管理表.xlsx
+++ b/资产/油罐车资产管理表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,34 @@
   </si>
   <si>
     <t>合肥新海运输有限公司</t>
+  </si>
+  <si>
+    <t>湘B09296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14350kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026.6.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株洲市天成联运有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东菏泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马久红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -622,7 +650,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -633,7 +661,7 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="29.25" customWidth="1"/>
     <col min="10" max="12" width="13.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -881,22 +909,47 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1">
+        <v>78282369</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2018.6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>

--- a/资产/油罐车资产管理表.xlsx
+++ b/资产/油罐车资产管理表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,14 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨玉杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重庆顺宇物流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,118 +117,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>✔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京AEZ911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2027.12.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京宏茂顺通运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐延明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睆NA6435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.9.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六安俊雄汽车运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南焦作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睆AA8590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.10.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥新海运输有限公司</t>
+  </si>
+  <si>
+    <t>湘B09296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14350kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026.6.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株洲市天成联运有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东菏泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>马久红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>高国强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂靠公司电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67588801或67588802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13907419169或13973343429</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜志飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赣H81693</t>
+  </si>
+  <si>
+    <t>赣H81520</t>
+  </si>
+  <si>
+    <t>邯郸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡立强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖方联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGFC1H00055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6500kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2027.12.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮梁县祥发运输有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGFC1H00051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6500kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2027.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>✔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淄博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京AEZ911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2027.12.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京宏茂顺通运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐延明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睆NA6435</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014.9.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.9.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六安俊雄汽车运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南焦作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睆AA8590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.10.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.10.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合肥新海运输有限公司</t>
-  </si>
-  <si>
-    <t>湘B09296</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.6.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14350kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2026.6.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>株洲市天成联运有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东菏泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马久红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -302,15 +376,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -647,99 +736,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.25" customWidth="1"/>
-    <col min="10" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.875" customWidth="1"/>
+    <col min="9" max="9" width="29.25" customWidth="1"/>
+    <col min="12" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
+        <v>13617229022</v>
+      </c>
+      <c r="C2" s="1">
         <v>17057039</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
         <v>2019.3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
+      <c r="I2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
@@ -747,238 +843,339 @@
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342807777</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17038003</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1">
-        <v>17038003</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>2018.7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1">
-        <v>2018.7</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="5">
+        <v>18439636976</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13263376815</v>
+      </c>
+      <c r="C4" s="1">
+        <v>89973675</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="1">
+        <v>2018.12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5">
+        <v>13901252904</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1">
-        <v>89973675</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4">
+        <v>13283077816</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14037650</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2018.9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="5">
+        <v>15955958298</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13001912299</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15034896</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2018.1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5">
+        <v>18096629819</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13929562101</v>
+      </c>
+      <c r="C7" s="1">
+        <v>78282369</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2018.6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15272879338</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1">
         <v>2018.12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7982620765</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1">
-        <v>14037650</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2018.9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17771760021</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2018.12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7982620765</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15034896</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2018.1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1">
-        <v>78282369</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2018.6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -992,8 +1189,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1007,8 +1206,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1022,8 +1223,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1037,6 +1240,8 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
